--- a/REVER_DailyTracker_20200820.xlsx
+++ b/REVER_DailyTracker_20200820.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\MVS\August\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Document\WBS\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD263952-C832-493B-AB15-29F4801445B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36629494-18A8-4BF8-A34D-403171C0FB43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BDBCA639-774E-4870-AA16-72178DF9137C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{BDBCA639-774E-4870-AA16-72178DF9137C}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="129">
   <si>
     <t>Task</t>
   </si>
@@ -466,6 +466,12 @@
   </si>
   <si>
     <t>RPA Sony Customization (integration) is work in progress for the OutboundList task.</t>
+  </si>
+  <si>
+    <t>VASTU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testing Issues Fix </t>
   </si>
 </sst>
 </file>
@@ -475,7 +481,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-14009]yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -496,6 +502,28 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -574,10 +602,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -616,9 +647,17 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{C15B089A-E43B-4883-B6C4-2A5539D34147}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -933,22 +972,22 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G267"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A244" workbookViewId="0">
+    <sheetView topLeftCell="A244" workbookViewId="0">
       <selection activeCell="G269" sqref="G269"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="106.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="106.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -969,7 +1008,7 @@
       </c>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1">
       <c r="D2" s="15" t="s">
         <v>10</v>
       </c>
@@ -979,8 +1018,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:7" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1"/>
+    <row r="4" spans="1:7" s="4" customFormat="1" ht="60">
       <c r="D4" s="18" t="s">
         <v>16</v>
       </c>
@@ -992,7 +1031,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" s="4" customFormat="1">
       <c r="D5" s="18" t="s">
         <v>16</v>
       </c>
@@ -1003,10 +1042,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" ht="45">
       <c r="D9" s="18" t="s">
         <v>16</v>
       </c>
@@ -1020,9 +1059,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1">
       <c r="D12" s="18" t="s">
         <v>16</v>
       </c>
@@ -1036,9 +1075,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" ht="45">
       <c r="D15" s="4" t="s">
         <v>20</v>
       </c>
@@ -1052,8 +1091,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="19" spans="2:7">
       <c r="C19" s="12" t="s">
         <v>1</v>
       </c>
@@ -1070,19 +1109,19 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:7">
       <c r="B20" s="8"/>
       <c r="C20" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:7">
       <c r="B21" s="9"/>
       <c r="C21" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:7" ht="36" customHeight="1">
       <c r="B22" s="10"/>
       <c r="C22" t="s">
         <v>5</v>
@@ -1100,13 +1139,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:7">
       <c r="B23" s="11"/>
       <c r="C23" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:7" ht="30">
       <c r="D25" s="4" t="s">
         <v>20</v>
       </c>
@@ -1120,7 +1159,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:7" ht="30">
       <c r="D28" s="4" t="s">
         <v>20</v>
       </c>
@@ -1134,7 +1173,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:7" ht="45">
       <c r="D32" s="4" t="s">
         <v>20</v>
       </c>
@@ -1142,7 +1181,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="4:7" ht="45">
       <c r="D36" t="s">
         <v>27</v>
       </c>
@@ -1150,12 +1189,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="4:7">
       <c r="G38" s="21" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="4:7">
       <c r="D40" t="s">
         <v>27</v>
       </c>
@@ -1163,7 +1202,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="4:7" ht="30">
       <c r="D44" t="s">
         <v>30</v>
       </c>
@@ -1174,7 +1213,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="47" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="47" spans="4:7" ht="30">
       <c r="D47" t="s">
         <v>30</v>
       </c>
@@ -1185,7 +1224,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="50" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="4:7">
       <c r="D50" t="s">
         <v>30</v>
       </c>
@@ -1196,12 +1235,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="51" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="4:7">
       <c r="G51" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="54" spans="4:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="54" spans="4:7" ht="105">
       <c r="D54" t="s">
         <v>30</v>
       </c>
@@ -1212,7 +1251,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="57" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="4:7">
       <c r="D57" t="s">
         <v>30</v>
       </c>
@@ -1223,12 +1262,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="58" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="4:7">
       <c r="G58" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="60" spans="4:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="60" spans="4:7" ht="75">
       <c r="D60" t="s">
         <v>30</v>
       </c>
@@ -1236,7 +1275,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="64" spans="4:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="4:7" ht="60">
       <c r="D64" t="s">
         <v>30</v>
       </c>
@@ -1244,7 +1283,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="67" spans="4:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="67" spans="4:7" ht="60">
       <c r="D67" t="s">
         <v>30</v>
       </c>
@@ -1252,7 +1291,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="70" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="4:7">
       <c r="D70" t="s">
         <v>30</v>
       </c>
@@ -1260,12 +1299,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="71" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="71" spans="4:7" ht="45">
       <c r="G71" s="20" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="73" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="4:7">
       <c r="D73" t="s">
         <v>44</v>
       </c>
@@ -1273,7 +1312,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="76" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="4:7">
       <c r="D76" t="s">
         <v>44</v>
       </c>
@@ -1281,7 +1320,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="79" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="79" spans="4:7" ht="45">
       <c r="D79" t="s">
         <v>30</v>
       </c>
@@ -1289,7 +1328,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="83" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="4:7">
       <c r="D83" t="s">
         <v>30</v>
       </c>
@@ -1297,12 +1336,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="84" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="84" spans="4:7" ht="30">
       <c r="G84" s="20" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="88" spans="4:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="4:7" ht="60">
       <c r="D88" t="s">
         <v>30</v>
       </c>
@@ -1310,7 +1349,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="93" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="4:7">
       <c r="D93" t="s">
         <v>51</v>
       </c>
@@ -1318,7 +1357,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="97" spans="4:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="97" spans="4:7" ht="45">
       <c r="D97" t="s">
         <v>30</v>
       </c>
@@ -1326,7 +1365,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="100" spans="4:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="100" spans="4:7" ht="60">
       <c r="D100" t="s">
         <v>30</v>
       </c>
@@ -1334,7 +1373,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="104" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="4:7">
       <c r="D104" t="s">
         <v>30</v>
       </c>
@@ -1342,12 +1381,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="105" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="4:7">
       <c r="G105" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="108" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="108" spans="4:7" ht="30">
       <c r="D108" t="s">
         <v>30</v>
       </c>
@@ -1355,7 +1394,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="112" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="4:7">
       <c r="D112" t="s">
         <v>30</v>
       </c>
@@ -1363,7 +1402,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="116" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="116" spans="4:7" ht="45">
       <c r="D116" t="s">
         <v>30</v>
       </c>
@@ -1371,7 +1410,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="120" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="4:7">
       <c r="D120" t="s">
         <v>30</v>
       </c>
@@ -1379,7 +1418,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="123" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="123" spans="4:7" ht="30">
       <c r="D123" t="s">
         <v>30</v>
       </c>
@@ -1387,12 +1426,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="124" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="4:7">
       <c r="G124" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="126" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="126" spans="4:7" ht="30">
       <c r="D126" t="s">
         <v>30</v>
       </c>
@@ -1400,7 +1439,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="129" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="129" spans="4:7" ht="30">
       <c r="D129" t="s">
         <v>30</v>
       </c>
@@ -1408,7 +1447,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="132" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="132" spans="4:7">
       <c r="D132" t="s">
         <v>30</v>
       </c>
@@ -1416,7 +1455,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="135" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="135" spans="4:7" ht="45">
       <c r="D135" t="s">
         <v>30</v>
       </c>
@@ -1424,7 +1463,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="139" spans="4:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="139" spans="4:7" ht="60">
       <c r="D139" t="s">
         <v>30</v>
       </c>
@@ -1432,7 +1471,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="143" spans="4:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="143" spans="4:7" ht="75">
       <c r="D143" t="s">
         <v>30</v>
       </c>
@@ -1440,7 +1479,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="146" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="146" spans="4:7">
       <c r="D146" t="s">
         <v>30</v>
       </c>
@@ -1448,12 +1487,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="147" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="147" spans="4:7">
       <c r="G147" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="150" spans="4:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="150" spans="4:7" ht="45">
       <c r="D150" t="s">
         <v>30</v>
       </c>
@@ -1461,7 +1500,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="154" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="154" spans="4:7">
       <c r="D154" t="s">
         <v>30</v>
       </c>
@@ -1469,12 +1508,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="155" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="155" spans="4:7">
       <c r="G155" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="158" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="158" spans="4:7">
       <c r="D158" t="s">
         <v>30</v>
       </c>
@@ -1482,22 +1521,22 @@
         <v>74</v>
       </c>
     </row>
-    <row r="159" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="159" spans="4:7">
       <c r="G159" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="160" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="160" spans="4:7">
       <c r="G160" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="161" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="161" spans="4:7">
       <c r="G161" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="164" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="164" spans="4:7">
       <c r="D164" t="s">
         <v>30</v>
       </c>
@@ -1505,7 +1544,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="168" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="168" spans="4:7" ht="30">
       <c r="D168" t="s">
         <v>30</v>
       </c>
@@ -1513,7 +1552,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="173" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="173" spans="4:7">
       <c r="D173" t="s">
         <v>30</v>
       </c>
@@ -1521,7 +1560,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="177" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="177" spans="4:7">
       <c r="D177" t="s">
         <v>30</v>
       </c>
@@ -1529,12 +1568,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="178" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="178" spans="4:7">
       <c r="G178" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="181" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="181" spans="4:7" ht="45">
       <c r="D181" t="s">
         <v>30</v>
       </c>
@@ -1542,7 +1581,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="184" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="184" spans="4:7">
       <c r="D184" t="s">
         <v>30</v>
       </c>
@@ -1550,7 +1589,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="186" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="186" spans="4:7">
       <c r="D186" t="s">
         <v>85</v>
       </c>
@@ -1558,17 +1597,17 @@
         <v>86</v>
       </c>
     </row>
-    <row r="187" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="187" spans="4:7">
       <c r="G187" s="22" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="188" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="188" spans="4:7">
       <c r="G188" s="23" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="190" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="190" spans="4:7">
       <c r="D190" t="s">
         <v>85</v>
       </c>
@@ -1576,7 +1615,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="193" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="193" spans="4:7">
       <c r="D193" t="s">
         <v>85</v>
       </c>
@@ -1584,17 +1623,17 @@
         <v>90</v>
       </c>
     </row>
-    <row r="194" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="194" spans="4:7">
       <c r="G194" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="196" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="196" spans="4:7">
       <c r="D196" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="199" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="199" spans="4:7">
       <c r="D199" t="s">
         <v>85</v>
       </c>
@@ -1602,12 +1641,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="200" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="200" spans="4:7">
       <c r="G200" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="203" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="203" spans="4:7">
       <c r="D203" t="s">
         <v>85</v>
       </c>
@@ -1615,27 +1654,27 @@
         <v>94</v>
       </c>
     </row>
-    <row r="204" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="204" spans="4:7">
       <c r="G204" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="207" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="207" spans="4:7">
       <c r="D207" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="208" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="208" spans="4:7">
       <c r="G208" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="209" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="209" spans="4:7">
       <c r="G209" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="211" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="211" spans="4:7">
       <c r="D211" t="s">
         <v>85</v>
       </c>
@@ -1643,12 +1682,12 @@
         <v>98</v>
       </c>
     </row>
-    <row r="212" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="212" spans="4:7">
       <c r="G212" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="216" spans="4:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="216" spans="4:7" ht="60">
       <c r="D216" t="s">
         <v>85</v>
       </c>
@@ -1656,7 +1695,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="220" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="220" spans="4:7">
       <c r="D220" t="s">
         <v>85</v>
       </c>
@@ -1664,12 +1703,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="221" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="221" spans="4:7">
       <c r="G221" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="225" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="225" spans="4:7">
       <c r="D225" t="s">
         <v>85</v>
       </c>
@@ -1677,7 +1716,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="228" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="228" spans="4:7">
       <c r="D228" t="s">
         <v>85</v>
       </c>
@@ -1685,12 +1724,12 @@
         <v>103</v>
       </c>
     </row>
-    <row r="229" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="229" spans="4:7">
       <c r="G229" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="231" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="231" spans="4:7">
       <c r="D231" t="s">
         <v>105</v>
       </c>
@@ -1698,7 +1737,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="234" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="234" spans="4:7">
       <c r="D234" t="s">
         <v>107</v>
       </c>
@@ -1706,7 +1745,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="236" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="236" spans="4:7">
       <c r="D236" t="s">
         <v>108</v>
       </c>
@@ -1714,17 +1753,17 @@
         <v>109</v>
       </c>
     </row>
-    <row r="237" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="237" spans="4:7">
       <c r="G237" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="238" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="238" spans="4:7">
       <c r="G238" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="241" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="241" spans="4:7">
       <c r="D241" t="s">
         <v>105</v>
       </c>
@@ -1732,12 +1771,12 @@
         <v>113</v>
       </c>
     </row>
-    <row r="242" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="242" spans="4:7">
       <c r="G242" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="245" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="245" spans="4:7">
       <c r="D245" t="s">
         <v>108</v>
       </c>
@@ -1745,7 +1784,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="248" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="248" spans="4:7">
       <c r="D248" t="s">
         <v>108</v>
       </c>
@@ -1753,12 +1792,12 @@
         <v>116</v>
       </c>
     </row>
-    <row r="249" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="249" spans="4:7">
       <c r="G249" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="252" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="252" spans="4:7">
       <c r="D252" t="s">
         <v>108</v>
       </c>
@@ -1766,17 +1805,17 @@
         <v>120</v>
       </c>
     </row>
-    <row r="253" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="253" spans="4:7">
       <c r="G253" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="254" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="254" spans="4:7">
       <c r="G254" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="257" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="257" spans="4:7">
       <c r="D257" t="s">
         <v>121</v>
       </c>
@@ -1784,7 +1823,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="260" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="260" spans="4:7">
       <c r="D260" t="s">
         <v>108</v>
       </c>
@@ -1792,12 +1831,12 @@
         <v>123</v>
       </c>
     </row>
-    <row r="261" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="261" spans="4:7">
       <c r="G261" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="264" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="264" spans="4:7">
       <c r="D264" t="s">
         <v>108</v>
       </c>
@@ -1805,7 +1844,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="267" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="267" spans="4:7">
       <c r="D267" t="s">
         <v>108</v>
       </c>
@@ -1828,18 +1867,18 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1862,7 +1901,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1871,7 +1910,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1880,46 +1919,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -1936,22 +1975,22 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1974,16 +2013,22 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="15.75">
       <c r="A2" s="1"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+      <c r="B2" s="24">
+        <v>44063</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>128</v>
+      </c>
       <c r="E2" s="7"/>
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1992,46 +2037,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -2052,18 +2097,18 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -2086,7 +2131,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -2095,7 +2140,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2104,46 +2149,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -2164,18 +2209,18 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -2198,7 +2243,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -2207,7 +2252,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2216,46 +2261,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -2276,18 +2321,18 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -2310,7 +2355,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2331,7 +2376,7 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2340,46 +2385,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -2400,18 +2445,18 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -2434,7 +2479,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -2443,7 +2488,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2452,46 +2497,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -2512,18 +2557,18 @@
       <selection activeCell="F14" sqref="E14:F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -2546,7 +2591,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -2555,7 +2600,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2564,46 +2609,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -2624,18 +2669,18 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -2658,7 +2703,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -2667,7 +2712,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2676,46 +2721,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -2736,18 +2781,18 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -2770,7 +2815,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -2779,7 +2824,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2788,46 +2833,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>

--- a/REVER_DailyTracker_20200820.xlsx
+++ b/REVER_DailyTracker_20200820.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Document\WBS\DailyTracker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mamatha\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36629494-18A8-4BF8-A34D-403171C0FB43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5360A7B0-4F34-4BC9-AB9C-502D0C88CAAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{BDBCA639-774E-4870-AA16-72178DF9137C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{BDBCA639-774E-4870-AA16-72178DF9137C}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -29,18 +29,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="131">
   <si>
     <t>Task</t>
   </si>
@@ -472,6 +466,12 @@
   </si>
   <si>
     <t xml:space="preserve">Testing Issues Fix </t>
+  </si>
+  <si>
+    <t>RMS Sony download</t>
+  </si>
+  <si>
+    <t>RMS invoice dowload automation with multiple records</t>
   </si>
 </sst>
 </file>
@@ -976,15 +976,15 @@
       <selection activeCell="G269" sqref="G269"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="106.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="106.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1019,7 +1019,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1"/>
-    <row r="4" spans="1:7" s="4" customFormat="1" ht="60">
+    <row r="4" spans="1:7" s="4" customFormat="1" ht="43.2">
       <c r="D4" s="18" t="s">
         <v>16</v>
       </c>
@@ -1045,7 +1045,7 @@
     <row r="6" spans="1:7" s="4" customFormat="1"/>
     <row r="7" spans="1:7" s="4" customFormat="1"/>
     <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" ht="45">
+    <row r="9" spans="1:7" s="4" customFormat="1" ht="28.8">
       <c r="D9" s="18" t="s">
         <v>16</v>
       </c>
@@ -1077,7 +1077,7 @@
     </row>
     <row r="13" spans="1:7" s="4" customFormat="1"/>
     <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" ht="45">
+    <row r="15" spans="1:7" s="4" customFormat="1" ht="28.8">
       <c r="D15" s="4" t="s">
         <v>20</v>
       </c>
@@ -1145,7 +1145,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="2:7" ht="30">
+    <row r="25" spans="2:7" ht="28.8">
       <c r="D25" s="4" t="s">
         <v>20</v>
       </c>
@@ -1159,7 +1159,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="2:7" ht="30">
+    <row r="28" spans="2:7" ht="28.8">
       <c r="D28" s="4" t="s">
         <v>20</v>
       </c>
@@ -1173,7 +1173,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="2:7" ht="45">
+    <row r="32" spans="2:7" ht="43.2">
       <c r="D32" s="4" t="s">
         <v>20</v>
       </c>
@@ -1181,7 +1181,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="4:7" ht="45">
+    <row r="36" spans="4:7" ht="28.8">
       <c r="D36" t="s">
         <v>27</v>
       </c>
@@ -1202,7 +1202,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="4:7" ht="30">
+    <row r="44" spans="4:7" ht="28.8">
       <c r="D44" t="s">
         <v>30</v>
       </c>
@@ -1213,7 +1213,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="47" spans="4:7" ht="30">
+    <row r="47" spans="4:7" ht="28.8">
       <c r="D47" t="s">
         <v>30</v>
       </c>
@@ -1240,7 +1240,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="54" spans="4:7" ht="105">
+    <row r="54" spans="4:7" ht="72">
       <c r="D54" t="s">
         <v>30</v>
       </c>
@@ -1267,7 +1267,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="60" spans="4:7" ht="75">
+    <row r="60" spans="4:7" ht="72">
       <c r="D60" t="s">
         <v>30</v>
       </c>
@@ -1275,7 +1275,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="64" spans="4:7" ht="60">
+    <row r="64" spans="4:7" ht="57.6">
       <c r="D64" t="s">
         <v>30</v>
       </c>
@@ -1283,7 +1283,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="67" spans="4:7" ht="60">
+    <row r="67" spans="4:7" ht="43.2">
       <c r="D67" t="s">
         <v>30</v>
       </c>
@@ -1299,7 +1299,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="71" spans="4:7" ht="45">
+    <row r="71" spans="4:7" ht="28.8">
       <c r="G71" s="20" t="s">
         <v>43</v>
       </c>
@@ -1320,7 +1320,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="79" spans="4:7" ht="45">
+    <row r="79" spans="4:7" ht="28.8">
       <c r="D79" t="s">
         <v>30</v>
       </c>
@@ -1336,12 +1336,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="84" spans="4:7" ht="30">
+    <row r="84" spans="4:7" ht="28.8">
       <c r="G84" s="20" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="88" spans="4:7" ht="60">
+    <row r="88" spans="4:7" ht="57.6">
       <c r="D88" t="s">
         <v>30</v>
       </c>
@@ -1357,7 +1357,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="97" spans="4:7" ht="45">
+    <row r="97" spans="4:7" ht="43.2">
       <c r="D97" t="s">
         <v>30</v>
       </c>
@@ -1365,7 +1365,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="100" spans="4:7" ht="60">
+    <row r="100" spans="4:7" ht="43.2">
       <c r="D100" t="s">
         <v>30</v>
       </c>
@@ -1386,7 +1386,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="108" spans="4:7" ht="30">
+    <row r="108" spans="4:7" ht="28.8">
       <c r="D108" t="s">
         <v>30</v>
       </c>
@@ -1402,7 +1402,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="116" spans="4:7" ht="45">
+    <row r="116" spans="4:7" ht="28.8">
       <c r="D116" t="s">
         <v>30</v>
       </c>
@@ -1418,7 +1418,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="123" spans="4:7" ht="30">
+    <row r="123" spans="4:7" ht="28.8">
       <c r="D123" t="s">
         <v>30</v>
       </c>
@@ -1431,7 +1431,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="126" spans="4:7" ht="30">
+    <row r="126" spans="4:7" ht="28.8">
       <c r="D126" t="s">
         <v>30</v>
       </c>
@@ -1439,7 +1439,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="129" spans="4:7" ht="30">
+    <row r="129" spans="4:7" ht="28.8">
       <c r="D129" t="s">
         <v>30</v>
       </c>
@@ -1455,7 +1455,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="135" spans="4:7" ht="45">
+    <row r="135" spans="4:7" ht="28.8">
       <c r="D135" t="s">
         <v>30</v>
       </c>
@@ -1463,7 +1463,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="139" spans="4:7" ht="60">
+    <row r="139" spans="4:7" ht="43.2">
       <c r="D139" t="s">
         <v>30</v>
       </c>
@@ -1471,7 +1471,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="143" spans="4:7" ht="75">
+    <row r="143" spans="4:7" ht="43.2">
       <c r="D143" t="s">
         <v>30</v>
       </c>
@@ -1492,7 +1492,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="150" spans="4:7" ht="45">
+    <row r="150" spans="4:7" ht="43.2">
       <c r="D150" t="s">
         <v>30</v>
       </c>
@@ -1544,7 +1544,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="168" spans="4:7" ht="30">
+    <row r="168" spans="4:7" ht="28.8">
       <c r="D168" t="s">
         <v>30</v>
       </c>
@@ -1573,7 +1573,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="181" spans="4:7" ht="45">
+    <row r="181" spans="4:7" ht="28.8">
       <c r="D181" t="s">
         <v>30</v>
       </c>
@@ -1687,7 +1687,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="216" spans="4:7" ht="60">
+    <row r="216" spans="4:7" ht="43.2">
       <c r="D216" t="s">
         <v>85</v>
       </c>
@@ -1867,15 +1867,15 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1975,19 +1975,19 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2013,7 +2013,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75">
+    <row r="2" spans="1:7" ht="15.6">
       <c r="A2" s="1"/>
       <c r="B2" s="24">
         <v>44063</v>
@@ -2097,15 +2097,15 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2205,19 +2205,19 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2247,10 +2247,16 @@
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="7"/>
+      <c r="D2" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0.4</v>
+      </c>
       <c r="F2" s="3"/>
-      <c r="G2" s="1"/>
+      <c r="G2" s="1" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1"/>
@@ -2321,15 +2327,15 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2445,15 +2451,15 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2557,15 +2563,15 @@
       <selection activeCell="F14" sqref="E14:F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2669,15 +2675,15 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2781,15 +2787,15 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
